--- a/7WondersGameResults.xlsx
+++ b/7WondersGameResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Player_0</t>
   </si>
@@ -48,6 +48,36 @@
   </si>
   <si>
     <t>Gizah B</t>
+  </si>
+  <si>
+    <t>Rhodos A</t>
+  </si>
+  <si>
+    <t>Gizah A</t>
+  </si>
+  <si>
+    <t>Ephesos A</t>
+  </si>
+  <si>
+    <t>Ephesos B</t>
+  </si>
+  <si>
+    <t>Olympia B</t>
+  </si>
+  <si>
+    <t>Rhodos B</t>
+  </si>
+  <si>
+    <t>Halikarnassos B</t>
+  </si>
+  <si>
+    <t>Halikarnassos A</t>
+  </si>
+  <si>
+    <t>Olympia A</t>
+  </si>
+  <si>
+    <t>Alexandria A</t>
   </si>
 </sst>
 </file>
@@ -94,7 +124,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr codeName=""/>
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K42"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -187,6 +217,1137 @@
         <v>61</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>50</v>
+      </c>
+      <c r="B4" s="0">
+        <v>52</v>
+      </c>
+      <c r="C4" s="0">
+        <v>44</v>
+      </c>
+      <c r="D4" s="0">
+        <v>28</v>
+      </c>
+      <c r="E4" s="0">
+        <v>44</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="0">
+        <v>1</v>
+      </c>
+      <c r="K4" s="0">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>41</v>
+      </c>
+      <c r="B5" s="0">
+        <v>42</v>
+      </c>
+      <c r="C5" s="0">
+        <v>46</v>
+      </c>
+      <c r="D5" s="0">
+        <v>48</v>
+      </c>
+      <c r="E5" s="0">
+        <v>51</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="0">
+        <v>4</v>
+      </c>
+      <c r="K5" s="0">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>49</v>
+      </c>
+      <c r="B6" s="0">
+        <v>40</v>
+      </c>
+      <c r="C6" s="0">
+        <v>56</v>
+      </c>
+      <c r="D6" s="0">
+        <v>53</v>
+      </c>
+      <c r="E6" s="0">
+        <v>33</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" s="0">
+        <v>2</v>
+      </c>
+      <c r="K6" s="0">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>57</v>
+      </c>
+      <c r="B7" s="0">
+        <v>45</v>
+      </c>
+      <c r="C7" s="0">
+        <v>66</v>
+      </c>
+      <c r="D7" s="0">
+        <v>40</v>
+      </c>
+      <c r="E7" s="0">
+        <v>47</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" s="0">
+        <v>2</v>
+      </c>
+      <c r="K7" s="0">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>46</v>
+      </c>
+      <c r="B8" s="0">
+        <v>31</v>
+      </c>
+      <c r="C8" s="0">
+        <v>55</v>
+      </c>
+      <c r="D8" s="0">
+        <v>50</v>
+      </c>
+      <c r="E8" s="0">
+        <v>50</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="J8" s="0">
+        <v>2</v>
+      </c>
+      <c r="K8" s="0">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>41</v>
+      </c>
+      <c r="B9" s="0">
+        <v>52</v>
+      </c>
+      <c r="C9" s="0">
+        <v>48</v>
+      </c>
+      <c r="D9" s="0">
+        <v>52</v>
+      </c>
+      <c r="E9" s="0">
+        <v>52</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="J9" s="0">
+        <v>1</v>
+      </c>
+      <c r="K9" s="0">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>48</v>
+      </c>
+      <c r="B10" s="0">
+        <v>57</v>
+      </c>
+      <c r="C10" s="0">
+        <v>45</v>
+      </c>
+      <c r="D10" s="0">
+        <v>68</v>
+      </c>
+      <c r="E10" s="0">
+        <v>42</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" s="0">
+        <v>3</v>
+      </c>
+      <c r="K10" s="0">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>47</v>
+      </c>
+      <c r="B11" s="0">
+        <v>47</v>
+      </c>
+      <c r="C11" s="0">
+        <v>54</v>
+      </c>
+      <c r="D11" s="0">
+        <v>44</v>
+      </c>
+      <c r="E11" s="0">
+        <v>56</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J11" s="0">
+        <v>4</v>
+      </c>
+      <c r="K11" s="0">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>47</v>
+      </c>
+      <c r="B12" s="0">
+        <v>41</v>
+      </c>
+      <c r="C12" s="0">
+        <v>48</v>
+      </c>
+      <c r="D12" s="0">
+        <v>40</v>
+      </c>
+      <c r="E12" s="0">
+        <v>54</v>
+      </c>
+      <c r="H12" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="J12" s="0">
+        <v>4</v>
+      </c>
+      <c r="K12" s="0">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>31</v>
+      </c>
+      <c r="B13" s="0">
+        <v>28</v>
+      </c>
+      <c r="C13" s="0">
+        <v>63</v>
+      </c>
+      <c r="D13" s="0">
+        <v>49</v>
+      </c>
+      <c r="E13" s="0">
+        <v>51</v>
+      </c>
+      <c r="H13" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="I13" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="J13" s="0">
+        <v>2</v>
+      </c>
+      <c r="K13" s="0">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>25</v>
+      </c>
+      <c r="B14" s="0">
+        <v>59</v>
+      </c>
+      <c r="C14" s="0">
+        <v>46</v>
+      </c>
+      <c r="D14" s="0">
+        <v>47</v>
+      </c>
+      <c r="E14" s="0">
+        <v>53</v>
+      </c>
+      <c r="H14" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="I14" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="J14" s="0">
+        <v>1</v>
+      </c>
+      <c r="K14" s="0">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>45</v>
+      </c>
+      <c r="B15" s="0">
+        <v>43</v>
+      </c>
+      <c r="C15" s="0">
+        <v>60</v>
+      </c>
+      <c r="D15" s="0">
+        <v>47</v>
+      </c>
+      <c r="E15" s="0">
+        <v>39</v>
+      </c>
+      <c r="H15" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="I15" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="J15" s="0">
+        <v>2</v>
+      </c>
+      <c r="K15" s="0">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>47</v>
+      </c>
+      <c r="B16" s="0">
+        <v>45</v>
+      </c>
+      <c r="C16" s="0">
+        <v>49</v>
+      </c>
+      <c r="D16" s="0">
+        <v>34</v>
+      </c>
+      <c r="E16" s="0">
+        <v>48</v>
+      </c>
+      <c r="H16" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I16" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="J16" s="0">
+        <v>2</v>
+      </c>
+      <c r="K16" s="0">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>49</v>
+      </c>
+      <c r="B17" s="0">
+        <v>39</v>
+      </c>
+      <c r="C17" s="0">
+        <v>68</v>
+      </c>
+      <c r="D17" s="0">
+        <v>37</v>
+      </c>
+      <c r="E17" s="0">
+        <v>54</v>
+      </c>
+      <c r="H17" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="I17" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="J17" s="0">
+        <v>2</v>
+      </c>
+      <c r="K17" s="0">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
+        <v>51</v>
+      </c>
+      <c r="B18" s="0">
+        <v>39</v>
+      </c>
+      <c r="C18" s="0">
+        <v>58</v>
+      </c>
+      <c r="D18" s="0">
+        <v>55</v>
+      </c>
+      <c r="E18" s="0">
+        <v>33</v>
+      </c>
+      <c r="H18" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="I18" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="J18" s="0">
+        <v>2</v>
+      </c>
+      <c r="K18" s="0">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
+        <v>42</v>
+      </c>
+      <c r="B19" s="0">
+        <v>41</v>
+      </c>
+      <c r="C19" s="0">
+        <v>55</v>
+      </c>
+      <c r="D19" s="0">
+        <v>31</v>
+      </c>
+      <c r="E19" s="0">
+        <v>65</v>
+      </c>
+      <c r="H19" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="I19" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="J19" s="0">
+        <v>4</v>
+      </c>
+      <c r="K19" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
+        <v>48</v>
+      </c>
+      <c r="B20" s="0">
+        <v>50</v>
+      </c>
+      <c r="C20" s="0">
+        <v>54</v>
+      </c>
+      <c r="D20" s="0">
+        <v>41</v>
+      </c>
+      <c r="E20" s="0">
+        <v>62</v>
+      </c>
+      <c r="H20" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I20" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J20" s="0">
+        <v>4</v>
+      </c>
+      <c r="K20" s="0">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
+        <v>38</v>
+      </c>
+      <c r="B21" s="0">
+        <v>40</v>
+      </c>
+      <c r="C21" s="0">
+        <v>43</v>
+      </c>
+      <c r="D21" s="0">
+        <v>44</v>
+      </c>
+      <c r="E21" s="0">
+        <v>59</v>
+      </c>
+      <c r="H21" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="I21" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="J21" s="0">
+        <v>4</v>
+      </c>
+      <c r="K21" s="0">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0">
+        <v>43</v>
+      </c>
+      <c r="B22" s="0">
+        <v>36</v>
+      </c>
+      <c r="C22" s="0">
+        <v>55</v>
+      </c>
+      <c r="D22" s="0">
+        <v>47</v>
+      </c>
+      <c r="E22" s="0">
+        <v>45</v>
+      </c>
+      <c r="H22" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="I22" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="J22" s="0">
+        <v>2</v>
+      </c>
+      <c r="K22" s="0">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0">
+        <v>48</v>
+      </c>
+      <c r="B23" s="0">
+        <v>38</v>
+      </c>
+      <c r="C23" s="0">
+        <v>62</v>
+      </c>
+      <c r="D23" s="0">
+        <v>41</v>
+      </c>
+      <c r="E23" s="0">
+        <v>54</v>
+      </c>
+      <c r="H23" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="I23" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="J23" s="0">
+        <v>2</v>
+      </c>
+      <c r="K23" s="0">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0">
+        <v>52</v>
+      </c>
+      <c r="B24" s="0">
+        <v>50</v>
+      </c>
+      <c r="C24" s="0">
+        <v>44</v>
+      </c>
+      <c r="D24" s="0">
+        <v>56</v>
+      </c>
+      <c r="E24" s="0">
+        <v>42</v>
+      </c>
+      <c r="H24" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="I24" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="J24" s="0">
+        <v>3</v>
+      </c>
+      <c r="K24" s="0">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0">
+        <v>42</v>
+      </c>
+      <c r="B25" s="0">
+        <v>44</v>
+      </c>
+      <c r="C25" s="0">
+        <v>37</v>
+      </c>
+      <c r="D25" s="0">
+        <v>42</v>
+      </c>
+      <c r="E25" s="0">
+        <v>64</v>
+      </c>
+      <c r="H25" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="I25" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="J25" s="0">
+        <v>4</v>
+      </c>
+      <c r="K25" s="0">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0">
+        <v>56</v>
+      </c>
+      <c r="B26" s="0">
+        <v>53</v>
+      </c>
+      <c r="C26" s="0">
+        <v>45</v>
+      </c>
+      <c r="D26" s="0">
+        <v>48</v>
+      </c>
+      <c r="E26" s="0">
+        <v>40</v>
+      </c>
+      <c r="H26" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="I26" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="J26" s="0">
+        <v>0</v>
+      </c>
+      <c r="K26" s="0">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0">
+        <v>51</v>
+      </c>
+      <c r="B27" s="0">
+        <v>42</v>
+      </c>
+      <c r="C27" s="0">
+        <v>54</v>
+      </c>
+      <c r="D27" s="0">
+        <v>36</v>
+      </c>
+      <c r="E27" s="0">
+        <v>58</v>
+      </c>
+      <c r="H27" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="I27" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="J27" s="0">
+        <v>4</v>
+      </c>
+      <c r="K27" s="0">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0">
+        <v>59</v>
+      </c>
+      <c r="B28" s="0">
+        <v>36</v>
+      </c>
+      <c r="C28" s="0">
+        <v>58</v>
+      </c>
+      <c r="D28" s="0">
+        <v>44</v>
+      </c>
+      <c r="E28" s="0">
+        <v>37</v>
+      </c>
+      <c r="H28" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I28" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="J28" s="0">
+        <v>0</v>
+      </c>
+      <c r="K28" s="0">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0">
+        <v>52</v>
+      </c>
+      <c r="B29" s="0">
+        <v>62</v>
+      </c>
+      <c r="C29" s="0">
+        <v>45</v>
+      </c>
+      <c r="D29" s="0">
+        <v>47</v>
+      </c>
+      <c r="E29" s="0">
+        <v>47</v>
+      </c>
+      <c r="H29" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="I29" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="J29" s="0">
+        <v>1</v>
+      </c>
+      <c r="K29" s="0">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0">
+        <v>41</v>
+      </c>
+      <c r="B30" s="0">
+        <v>48</v>
+      </c>
+      <c r="C30" s="0">
+        <v>49</v>
+      </c>
+      <c r="D30" s="0">
+        <v>47</v>
+      </c>
+      <c r="E30" s="0">
+        <v>51</v>
+      </c>
+      <c r="H30" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="I30" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="J30" s="0">
+        <v>4</v>
+      </c>
+      <c r="K30" s="0">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0">
+        <v>60</v>
+      </c>
+      <c r="B31" s="0">
+        <v>39</v>
+      </c>
+      <c r="C31" s="0">
+        <v>48</v>
+      </c>
+      <c r="D31" s="0">
+        <v>47</v>
+      </c>
+      <c r="E31" s="0">
+        <v>49</v>
+      </c>
+      <c r="H31" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="I31" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="J31" s="0">
+        <v>0</v>
+      </c>
+      <c r="K31" s="0">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0">
+        <v>34</v>
+      </c>
+      <c r="B32" s="0">
+        <v>31</v>
+      </c>
+      <c r="C32" s="0">
+        <v>53</v>
+      </c>
+      <c r="D32" s="0">
+        <v>45</v>
+      </c>
+      <c r="E32" s="0">
+        <v>55</v>
+      </c>
+      <c r="H32" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="I32" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="J32" s="0">
+        <v>4</v>
+      </c>
+      <c r="K32" s="0">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0">
+        <v>44</v>
+      </c>
+      <c r="B33" s="0">
+        <v>40</v>
+      </c>
+      <c r="C33" s="0">
+        <v>54</v>
+      </c>
+      <c r="D33" s="0">
+        <v>37</v>
+      </c>
+      <c r="E33" s="0">
+        <v>53</v>
+      </c>
+      <c r="H33" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="I33" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="J33" s="0">
+        <v>2</v>
+      </c>
+      <c r="K33" s="0">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0">
+        <v>51</v>
+      </c>
+      <c r="B34" s="0">
+        <v>41</v>
+      </c>
+      <c r="C34" s="0">
+        <v>61</v>
+      </c>
+      <c r="D34" s="0">
+        <v>49</v>
+      </c>
+      <c r="E34" s="0">
+        <v>33</v>
+      </c>
+      <c r="H34" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="I34" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="J34" s="0">
+        <v>2</v>
+      </c>
+      <c r="K34" s="0">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0">
+        <v>44</v>
+      </c>
+      <c r="B35" s="0">
+        <v>51</v>
+      </c>
+      <c r="C35" s="0">
+        <v>55</v>
+      </c>
+      <c r="D35" s="0">
+        <v>30</v>
+      </c>
+      <c r="E35" s="0">
+        <v>52</v>
+      </c>
+      <c r="H35" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I35" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="J35" s="0">
+        <v>2</v>
+      </c>
+      <c r="K35" s="0">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0">
+        <v>34</v>
+      </c>
+      <c r="B36" s="0">
+        <v>44</v>
+      </c>
+      <c r="C36" s="0">
+        <v>45</v>
+      </c>
+      <c r="D36" s="0">
+        <v>46</v>
+      </c>
+      <c r="E36" s="0">
+        <v>46</v>
+      </c>
+      <c r="H36" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="I36" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="J36" s="0">
+        <v>3</v>
+      </c>
+      <c r="K36" s="0">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0">
+        <v>33</v>
+      </c>
+      <c r="B37" s="0">
+        <v>55</v>
+      </c>
+      <c r="C37" s="0">
+        <v>37</v>
+      </c>
+      <c r="D37" s="0">
+        <v>50</v>
+      </c>
+      <c r="E37" s="0">
+        <v>55</v>
+      </c>
+      <c r="H37" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="I37" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="J37" s="0">
+        <v>1</v>
+      </c>
+      <c r="K37" s="0">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0">
+        <v>48</v>
+      </c>
+      <c r="B38" s="0">
+        <v>49</v>
+      </c>
+      <c r="C38" s="0">
+        <v>56</v>
+      </c>
+      <c r="D38" s="0">
+        <v>50</v>
+      </c>
+      <c r="E38" s="0">
+        <v>33</v>
+      </c>
+      <c r="H38" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="I38" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="J38" s="0">
+        <v>2</v>
+      </c>
+      <c r="K38" s="0">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0">
+        <v>57</v>
+      </c>
+      <c r="B39" s="0">
+        <v>26</v>
+      </c>
+      <c r="C39" s="0">
+        <v>56</v>
+      </c>
+      <c r="D39" s="0">
+        <v>33</v>
+      </c>
+      <c r="E39" s="0">
+        <v>39</v>
+      </c>
+      <c r="H39" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="I39" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J39" s="0">
+        <v>0</v>
+      </c>
+      <c r="K39" s="0">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0">
+        <v>45</v>
+      </c>
+      <c r="B40" s="0">
+        <v>41</v>
+      </c>
+      <c r="C40" s="0">
+        <v>67</v>
+      </c>
+      <c r="D40" s="0">
+        <v>36</v>
+      </c>
+      <c r="E40" s="0">
+        <v>40</v>
+      </c>
+      <c r="H40" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="I40" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="J40" s="0">
+        <v>2</v>
+      </c>
+      <c r="K40" s="0">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0">
+        <v>33</v>
+      </c>
+      <c r="B41" s="0">
+        <v>43</v>
+      </c>
+      <c r="C41" s="0">
+        <v>50</v>
+      </c>
+      <c r="D41" s="0">
+        <v>37</v>
+      </c>
+      <c r="E41" s="0">
+        <v>54</v>
+      </c>
+      <c r="H41" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="I41" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="J41" s="0">
+        <v>4</v>
+      </c>
+      <c r="K41" s="0">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0">
+        <v>43</v>
+      </c>
+      <c r="B42" s="0">
+        <v>44</v>
+      </c>
+      <c r="C42" s="0">
+        <v>67</v>
+      </c>
+      <c r="D42" s="0">
+        <v>31</v>
+      </c>
+      <c r="E42" s="0">
+        <v>55</v>
+      </c>
+      <c r="H42" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="I42" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="J42" s="0">
+        <v>2</v>
+      </c>
+      <c r="K42" s="0">
+        <v>67</v>
+      </c>
+    </row>
   </sheetData>
   <headerFooter/>
 </worksheet>
